--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacRelation.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacRelation.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F699A74-983A-4472-BDF5-EEFF5919B6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>備註說明</t>
   </si>
@@ -118,14 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR2</t>
   </si>
   <si>
@@ -195,12 +188,15 @@
   <si>
     <t>CreditSysNoAll</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -369,7 +365,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -385,10 +381,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -400,32 +396,26 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -481,9 +471,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -521,9 +511,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -558,7 +548,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -593,7 +583,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -766,44 +756,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="24" customWidth="1"/>
-    <col min="5" max="6" width="4.6640625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="30.77734375" style="19" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="22" customWidth="1"/>
+    <col min="5" max="6" width="4.6640625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="30.77734375" style="17" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>19</v>
@@ -813,47 +803,47 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="12"/>
       <c r="D4" s="4"/>
       <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="12"/>
       <c r="D5" s="4"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="12"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
@@ -861,35 +851,35 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="12"/>
       <c r="D7" s="4"/>
       <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="12"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="1:7" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -901,144 +891,138 @@
       <c r="F9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
+      <c r="A10" s="17">
         <v>1</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="19" t="s">
+      <c r="B10" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="17">
         <v>7</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22" t="s">
-        <v>35</v>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
+      <c r="A11" s="17">
         <f t="shared" ref="A11:A16" si="0">A10+1</f>
         <v>2</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="17">
         <v>32</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="19">
-        <v>32</v>
-      </c>
-      <c r="G11" s="21"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19">
+      <c r="A12" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="19">
+      <c r="B12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="17">
         <v>2</v>
       </c>
-      <c r="G12" s="21"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
+      <c r="A13" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="19">
-        <v>8</v>
-      </c>
-      <c r="G13" s="21"/>
+      <c r="D13" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19">
+      <c r="A14" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="19">
+      <c r="D14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="17">
         <v>6</v>
       </c>
-      <c r="G14" s="21"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
+      <c r="A15" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="19">
-        <v>8</v>
-      </c>
-      <c r="G15" s="21"/>
+      <c r="D15" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19">
+      <c r="A16" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="19">
+      <c r="D16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="17">
         <v>6</v>
       </c>
-      <c r="G16" s="21"/>
+      <c r="G16" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1058,10 +1042,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
@@ -1087,24 +1071,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
